--- a/asif2.xlsx
+++ b/asif2.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11220" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>un</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>asif123</t>
   </si>
@@ -31,6 +29,24 @@
   </si>
   <si>
     <t>asif@123</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>mohaddin</t>
+  </si>
+  <si>
+    <t>shaikh</t>
+  </si>
+  <si>
+    <t>pass@123</t>
+  </si>
+  <si>
+    <t>manager2</t>
+  </si>
+  <si>
+    <t>mera bharat desh mahan</t>
   </si>
 </sst>
 </file>
@@ -359,33 +375,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
